--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408293\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408293\git\Team_ChatureBhature_IdentifyCourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F639F1B-E4C4-476A-936F-A1E821DAC58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB4F89A-9F1B-4113-8DCE-8BDCDAE62F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1303,7 +1303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
